--- a/Projects 2023/BAF Head Office/Revised H.V.A.C Maintenance 2024.xlsx
+++ b/Projects 2023/BAF Head Office/Revised H.V.A.C Maintenance 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD57A7-7893-4430-93DD-3CA7B51006F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C876ED-5430-4011-B418-315BAB306F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
   <si>
     <t>S.NO</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve"> of Air Handling Units</t>
-  </si>
-  <si>
-    <t>Bank Al-Falah Head Office Karachi</t>
   </si>
   <si>
     <t>SUMMARY OF BOQ</t>
@@ -356,9 +353,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>03 Chillers, 06Nos circuit of Botzer Compressors, Existing Oil removed and fill up Owner Suppplied new Oil (BSE170) Germany 210 Ltr including repaired of leakages, replacement of dryer core &amp; dryer, top-up Freon complete in respect.</t>
-  </si>
-  <si>
     <t>Material Rate</t>
   </si>
   <si>
@@ -384,6 +378,18 @@
   </si>
   <si>
     <t>BOQ OF OVERHAULING, AND REPAIRING OF AIR HANDLING UNITS (AHU) 3rd Floor (A/B) BA BUILDING KARACHI</t>
+  </si>
+  <si>
+    <t>03 Chillers, 06Nos circuit of Botzer Compressors, Existing Oil removed and supply and re-fill up new Oil (BSE170) Germany 210 Ltr including repaired of leakages, replacement of dryer core &amp; dryer, top-up Freon complete in respect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S Bank Al-Falah Limited </t>
+  </si>
+  <si>
+    <t>Head Office I.I Chundriger Road  Karachi</t>
+  </si>
+  <si>
+    <t>For Pioneer Services</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,15 +1207,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1245,6 +1251,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1266,25 +1281,180 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>392113</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2EC765-C570-483A-9289-71EC277B1AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8905875" y="1304925"/>
+          <a:ext cx="944563" cy="730249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0F0E0C-6206-4A11-847D-45B4E2882550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9908400" y="1492247"/>
+          <a:ext cx="5169675" cy="681965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>663679</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>432218</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>93825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A030D6-6BC2-52B3-7BC9-347A28B13144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C06323-2C75-4BEB-8C72-7E67E7ADD2E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1463,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1306,58 +1476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="9096375"/>
-          <a:ext cx="1025629" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>330974</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5450A4F9-ECD1-6EAE-E0B9-3E05EFEF6D01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="750074" y="0"/>
-          <a:ext cx="4869675" cy="1133475"/>
+          <a:off x="10991850" y="8772525"/>
+          <a:ext cx="727493" cy="560550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:E32"/>
+  <dimension ref="A10:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,336 +2084,345 @@
     <col min="16133" max="16133" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="14"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="111" t="s">
+        <v>108</v>
+      </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>17</v>
-      </c>
+    <row r="12" spans="1:5" s="13" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="16">
-        <v>45254</v>
-      </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="16">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" s="13" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-    </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+    <row r="15" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+    </row>
+    <row r="17" spans="1:5" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B18" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C18" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="76" t="s">
+      <c r="E18" s="76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
         <v>1</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="B19" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
         <v>2</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
-        <v>3</v>
-      </c>
       <c r="B20" s="55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>3</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
-        <v>5</v>
+      <c r="A22" s="20">
+        <v>4</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>5</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="71">
         <f>'Air Handling Unit'!G22</f>
         <v>1319000</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D23" s="71">
         <f>'Air Handling Unit'!H22</f>
         <v>338000</v>
       </c>
-      <c r="E22" s="69">
-        <f>D22+C22</f>
+      <c r="E23" s="69">
+        <f>D23+C23</f>
         <v>1657000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
         <v>6</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
-        <v>7</v>
-      </c>
       <c r="B24" s="55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
-      <c r="E24" s="69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="E24" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
+        <v>7</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
         <v>8</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>9</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
-        <v>9</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="C27" s="71">
+        <f>Chillers!G15</f>
+        <v>10390000</v>
+      </c>
+      <c r="D27" s="71">
+        <f>Chillers!H15</f>
+        <v>1790000</v>
+      </c>
+      <c r="E27" s="69">
+        <f>D27+C27</f>
+        <v>12180000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73">
+        <v>10</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="71">
-        <f>Chillers!G15</f>
-        <v>9020000</v>
-      </c>
-      <c r="D26" s="71">
-        <f>Chillers!H15</f>
-        <v>1622000</v>
-      </c>
-      <c r="E26" s="69">
-        <f>D26+C26</f>
-        <v>10642000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73">
-        <v>10</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="74">
+      <c r="C28" s="74">
         <f>'Cooling Towers'!G18</f>
         <v>15647000</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D28" s="74">
         <f>'Cooling Towers'!H18</f>
         <v>1513000</v>
       </c>
-      <c r="E27" s="75">
-        <f>D27+C27</f>
+      <c r="E28" s="75">
+        <f>D28+C28</f>
         <v>17160000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="77">
-        <f t="shared" ref="C28:D28" si="0">SUM(C18:C27)</f>
-        <v>25986000</v>
-      </c>
-      <c r="D28" s="77">
-        <f t="shared" si="0"/>
-        <v>3473000</v>
-      </c>
-      <c r="E28" s="77">
-        <f>SUM(E18:E27)</f>
-        <v>29459000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
       <c r="B29" s="81" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C29" s="77">
-        <f t="shared" ref="C29:D29" si="1">C28*5%</f>
-        <v>1299300</v>
+        <f t="shared" ref="C29:D29" si="0">SUM(C19:C28)</f>
+        <v>27356000</v>
       </c>
       <c r="D29" s="77">
-        <f t="shared" si="1"/>
-        <v>173650</v>
+        <f t="shared" si="0"/>
+        <v>3641000</v>
       </c>
       <c r="E29" s="77">
-        <f>E28*5%</f>
-        <v>1472950</v>
+        <f>SUM(E19:E28)</f>
+        <v>30997000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
       <c r="B30" s="81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" s="77">
-        <f t="shared" ref="C30:D30" si="2">C28-C29</f>
-        <v>24686700</v>
+        <f t="shared" ref="C30:D30" si="1">C29*5%</f>
+        <v>1367800</v>
       </c>
       <c r="D30" s="77">
+        <f t="shared" si="1"/>
+        <v>182050</v>
+      </c>
+      <c r="E30" s="77">
+        <f>E29*5%</f>
+        <v>1549850</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="76"/>
+      <c r="B31" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="77">
+        <f t="shared" ref="C31:D31" si="2">C29-C30</f>
+        <v>25988200</v>
+      </c>
+      <c r="D31" s="77">
         <f t="shared" si="2"/>
-        <v>3299350</v>
-      </c>
-      <c r="E30" s="77">
-        <f>E28-E29</f>
-        <v>27986050</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="79">
-        <v>0</v>
-      </c>
-      <c r="D31" s="79">
-        <f>D30*13%</f>
-        <v>428915.5</v>
-      </c>
-      <c r="E31" s="80">
-        <f>D31</f>
-        <v>428915.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3458950</v>
+      </c>
+      <c r="E31" s="77">
+        <f>E29-E30</f>
+        <v>29447150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
       <c r="B32" s="81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="79">
-        <f>C31+C30</f>
-        <v>24686700</v>
+        <v>0</v>
       </c>
       <c r="D32" s="79">
-        <f>D31+D30</f>
-        <v>3728265.5</v>
+        <f>D31*13%</f>
+        <v>449663.5</v>
       </c>
       <c r="E32" s="80">
-        <f>E31+E30</f>
-        <v>28414965.5</v>
-      </c>
+        <f>D32</f>
+        <v>449663.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="79">
+        <f>C32+C31</f>
+        <v>25988200</v>
+      </c>
+      <c r="D33" s="79">
+        <f>D32+D31</f>
+        <v>3908613.5</v>
+      </c>
+      <c r="E33" s="80">
+        <f>E32+E31</f>
+        <v>29896813.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:E15"/>
+  <mergeCells count="3">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2302,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2321,17 +2450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="A1" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
@@ -2347,16 +2476,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="G2" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="87" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>102</v>
       </c>
       <c r="I2" s="87" t="s">
         <v>16</v>
@@ -2367,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -2399,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2431,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -2463,7 +2592,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -2495,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -2527,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -2559,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -2591,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -2623,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -2655,7 +2784,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -2687,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -2719,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2751,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -2783,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2815,13 +2944,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8">
         <v>15000</v>
@@ -2847,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2879,7 +3008,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -2911,7 +3040,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2943,7 +3072,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2971,14 +3100,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="85">
         <f>SUM(G3:G21)</f>
         <v>1319000</v>
@@ -2993,14 +3122,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
+      <c r="A23" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="67">
         <f>G22*5%</f>
         <v>65950</v>
@@ -3015,14 +3144,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
+      <c r="A24" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="67">
         <f>G22-G23</f>
         <v>1253050</v>
@@ -3037,14 +3166,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
+      <c r="A25" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="67">
         <v>0</v>
       </c>
@@ -3058,14 +3187,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
+      <c r="A26" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="67">
         <f>G25+G24</f>
         <v>1253050</v>
@@ -3089,12 +3218,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.4" bottom="0" header="0.3" footer="0.3"/>
@@ -3125,7 +3254,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -3147,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>16</v>
@@ -3158,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -3179,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -3200,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -3221,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -3284,7 +3413,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -3305,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -3326,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -3378,7 +3507,7 @@
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="104"/>
       <c r="C14" s="104"/>
@@ -3391,7 +3520,7 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="104"/>
@@ -3419,7 +3548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3436,7 +3565,7 @@
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="107"/>
       <c r="C2" s="107"/>
@@ -3458,7 +3587,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>16</v>
@@ -3475,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="60">
         <v>15000</v>
@@ -3496,7 +3625,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="57">
         <v>15000</v>
@@ -3511,13 +3640,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="57">
         <v>15000</v>
@@ -3532,7 +3661,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -3553,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -3605,7 +3734,7 @@
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="104"/>
       <c r="C11" s="104"/>
@@ -3618,7 +3747,7 @@
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="104"/>
       <c r="C12" s="104"/>
@@ -3646,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,7 +3786,7 @@
     <col min="3" max="3" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="9" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="9" customWidth="1"/>
     <col min="9" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3690,16 +3819,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="G2" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="87" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>102</v>
       </c>
       <c r="I2" s="87" t="s">
         <v>16</v>
@@ -3708,7 +3837,7 @@
     <row r="3" spans="1:11" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="3"/>
@@ -3723,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="64">
         <v>6</v>
@@ -3732,22 +3861,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="65">
-        <v>1050000</v>
+        <v>1195000</v>
       </c>
       <c r="F4" s="65">
-        <v>197000</v>
+        <v>215000</v>
       </c>
       <c r="G4" s="65">
         <f>E4*C4</f>
-        <v>6300000</v>
+        <v>7170000</v>
       </c>
       <c r="H4" s="65">
         <f>F4*C4</f>
-        <v>1182000</v>
+        <v>1290000</v>
       </c>
       <c r="I4" s="8">
         <f>H4+G4</f>
-        <v>7482000</v>
+        <v>8460000</v>
       </c>
       <c r="K4" s="25"/>
     </row>
@@ -3756,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="64">
         <v>6</v>
@@ -3789,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="64">
         <v>0</v>
@@ -3821,31 +3950,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="65">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F7" s="65">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G7" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H7" s="65">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="24" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3853,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="64">
         <v>10</v>
@@ -3885,7 +4014,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="64">
         <v>4</v>
@@ -3917,13 +4046,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="64">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="65">
@@ -3947,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="64">
         <v>2</v>
@@ -4011,7 +4140,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="66">
         <v>6</v>
@@ -4043,7 +4172,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -4071,112 +4200,112 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="61">
         <f>SUM(G4:G14)</f>
-        <v>9020000</v>
+        <v>10390000</v>
       </c>
       <c r="H15" s="61">
         <f>SUM(H4:H14)</f>
-        <v>1622000</v>
+        <v>1790000</v>
       </c>
       <c r="I15" s="61">
         <f>SUM(I4:I14)</f>
-        <v>10642000</v>
+        <v>12180000</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
+      <c r="A16" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="67">
         <f>G15*5%</f>
-        <v>451000</v>
+        <v>519500</v>
       </c>
       <c r="H16" s="67">
         <f>H15*5%</f>
-        <v>81100</v>
+        <v>89500</v>
       </c>
       <c r="I16" s="67">
         <f>I15*5%</f>
-        <v>532100</v>
+        <v>609000</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="A17" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="67">
         <f>G15-G16</f>
-        <v>8569000</v>
+        <v>9870500</v>
       </c>
       <c r="H17" s="67">
         <f>H15-H16</f>
-        <v>1540900</v>
+        <v>1700500</v>
       </c>
       <c r="I17" s="61">
         <f>I15-I16</f>
-        <v>10109900</v>
+        <v>11571000</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
+      <c r="A18" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="67">
         <v>0</v>
       </c>
       <c r="H18" s="67">
         <f>H17*13%</f>
-        <v>200317</v>
+        <v>221065</v>
       </c>
       <c r="I18" s="61">
         <f>H18</f>
-        <v>200317</v>
+        <v>221065</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
+      <c r="A19" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="67">
         <f>G18+G17</f>
-        <v>8569000</v>
+        <v>9870500</v>
       </c>
       <c r="H19" s="67">
         <f>H18+H17</f>
-        <v>1741217</v>
+        <v>1921565</v>
       </c>
       <c r="I19" s="61">
         <f>I18+I17</f>
-        <v>10310217</v>
+        <v>11792065</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4203,12 +4332,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.4" bottom="0" header="0.3" footer="0.3"/>
@@ -4223,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,16 +4383,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="G1" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="87" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>102</v>
       </c>
       <c r="I1" s="87" t="s">
         <v>16</v>
@@ -4272,7 +4401,7 @@
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="93"/>
       <c r="D2" s="3"/>
@@ -4287,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -4319,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
@@ -4351,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
@@ -4383,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>12</v>
@@ -4415,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -4447,13 +4576,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="8">
         <v>80000</v>
@@ -4479,7 +4608,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3">
         <v>12</v>
@@ -4511,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -4543,7 +4672,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
@@ -4575,7 +4704,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -4607,7 +4736,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -4639,13 +4768,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3">
         <v>3500</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8">
         <v>300</v>
@@ -4671,7 +4800,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -4703,7 +4832,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -4735,7 +4864,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -4763,14 +4892,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="61">
         <f t="shared" ref="G18:H18" si="3">SUM(G3:G17)</f>
         <v>15647000</v>
@@ -4785,14 +4914,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
+      <c r="A19" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="67">
         <f>G18*5%</f>
         <v>782350</v>
@@ -4807,14 +4936,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
+      <c r="A20" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="67">
         <f>G18-G19</f>
         <v>14864650</v>
@@ -4829,14 +4958,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="A21" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="67">
         <v>0</v>
       </c>
@@ -4850,14 +4979,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
+      <c r="A22" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="67">
         <f>G21+G20</f>
         <v>14864650</v>
